--- a/Ben_results.xlsx
+++ b/Ben_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022\09_september\Ben paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2D0EC-1BA4-4F35-841B-DFE8EE8227D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534B7C2-CBC8-471A-91A6-C99FEA223F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7A1BAA2-2CC2-41DB-A618-5B0C37F22A26}"/>
   </bookViews>
@@ -1586,10 +1586,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.22412575691971282</c:v>
+                  <c:v>-0.22412575691971282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10830781042750293</c:v>
+                  <c:v>-0.10830781042750293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,10 +1646,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.11107615432675821</c:v>
+                  <c:v>-0.11107615432675821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12099734213984603</c:v>
+                  <c:v>-0.12099734213984603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,10 +1706,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.0025602966140363E-2</c:v>
+                  <c:v>-8.0025602966140363E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1249350942589762</c:v>
+                  <c:v>-0.1249350942589762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,10 +1766,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.11766337238416669</c:v>
+                  <c:v>-0.11766337238416669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3312904379624131E-2</c:v>
+                  <c:v>-8.3312904379624131E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,7 +1831,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>group cycle</a:t>
+                  <a:t>group cycle dropout</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1865,7 +1865,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1942,7 +1942,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>reduction in the odds of improving their livelihood due to drop-outs</a:t>
+                  <a:t>reduction in the odds of improving their livelihood due to dropouts</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2173,10 +2173,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.5296711252481421</c:v>
+                  <c:v>-1.5296711252481421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3729203991452383</c:v>
+                  <c:v>-4.3729203991452383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,10 +2233,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0029025967957743</c:v>
+                  <c:v>-2.0029025967957743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1530663244457298</c:v>
+                  <c:v>-6.1530663244457298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,10 +2293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.9453627688595851</c:v>
+                  <c:v>-4.9453627688595851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1441259788175806</c:v>
+                  <c:v>-5.1441259788175806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,10 +2353,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0467872906489388</c:v>
+                  <c:v>-4.0467872906489388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8146179267235985</c:v>
+                  <c:v>-5.8146179267235985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,7 +2418,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>group cycle</a:t>
+                  <a:t>group cycle dropout</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2452,7 +2452,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2494,8 +2494,6 @@
         <c:axId val="1647200064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2540,7 +2538,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>to drop-outs</a:t>
+                  <a:t>to dropouts</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5348,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687F5BAE-E83F-4ABC-89CD-B6C4E5AEDA44}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5730,36 +5728,36 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <f>+(H4-H3)</f>
-        <v>8.0025602966140363E-2</v>
+        <f>+(H4-H3)*-1</f>
+        <v>-8.0025602966140363E-2</v>
       </c>
       <c r="I9">
-        <f>+(I4-I3)</f>
-        <v>0.11107615432675821</v>
+        <f t="shared" ref="I9:O9" si="2">+(I4-I3)*-1</f>
+        <v>-0.11107615432675821</v>
       </c>
       <c r="J9">
-        <f>+(J4-J3)</f>
-        <v>0.11766337238416669</v>
+        <f t="shared" si="2"/>
+        <v>-0.11766337238416669</v>
       </c>
       <c r="K9">
-        <f>+(K4-K3)</f>
-        <v>0.22412575691971282</v>
+        <f t="shared" si="2"/>
+        <v>-0.22412575691971282</v>
       </c>
       <c r="L9">
-        <f>+(L4-L3)</f>
-        <v>4.9453627688595851</v>
+        <f t="shared" si="2"/>
+        <v>-4.9453627688595851</v>
       </c>
       <c r="M9">
-        <f>+(M4-M3)</f>
-        <v>2.0029025967957743</v>
+        <f t="shared" si="2"/>
+        <v>-2.0029025967957743</v>
       </c>
       <c r="N9">
-        <f>+(N4-N3)</f>
-        <v>4.0467872906489388</v>
+        <f t="shared" si="2"/>
+        <v>-4.0467872906489388</v>
       </c>
       <c r="O9">
-        <f>+(O4-O3)</f>
-        <v>1.5296711252481421</v>
+        <f t="shared" si="2"/>
+        <v>-1.5296711252481421</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -5782,36 +5780,36 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <f>+(H3-H2)</f>
-        <v>0.1249350942589762</v>
+        <f>+(H3-H2)*-1</f>
+        <v>-0.1249350942589762</v>
       </c>
       <c r="I10">
-        <f>+(I3-I2)</f>
-        <v>0.12099734213984603</v>
+        <f t="shared" ref="I10:O10" si="3">+(I3-I2)*-1</f>
+        <v>-0.12099734213984603</v>
       </c>
       <c r="J10">
-        <f>+(J3-J2)</f>
-        <v>8.3312904379624131E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.3312904379624131E-2</v>
       </c>
       <c r="K10">
-        <f>+(K3-K2)</f>
-        <v>0.10830781042750293</v>
+        <f t="shared" si="3"/>
+        <v>-0.10830781042750293</v>
       </c>
       <c r="L10">
-        <f>+(L3-L2)</f>
-        <v>5.1441259788175806</v>
+        <f t="shared" si="3"/>
+        <v>-5.1441259788175806</v>
       </c>
       <c r="M10">
-        <f>+(M3-M2)</f>
-        <v>6.1530663244457298</v>
+        <f t="shared" si="3"/>
+        <v>-6.1530663244457298</v>
       </c>
       <c r="N10">
-        <f>+(N3-N2)</f>
-        <v>5.8146179267235985</v>
+        <f t="shared" si="3"/>
+        <v>-5.8146179267235985</v>
       </c>
       <c r="O10">
-        <f>+(O3-O2)</f>
-        <v>4.3729203991452383</v>
+        <f t="shared" si="3"/>
+        <v>-4.3729203991452383</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
